--- a/files/system/import-tasks-sample.xlsx
+++ b/files/system/import-tasks-sample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanmo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8265" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Title</t>
   </si>
@@ -27,24 +27,9 @@
     <t>Deadline</t>
   </si>
   <si>
-    <t>Milestone</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Assigned to</t>
-  </si>
-  <si>
-    <t>Collaborators</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
     <t>To do</t>
   </si>
   <si>
@@ -57,9 +42,6 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>Points</t>
-  </si>
-  <si>
     <t>Bug</t>
   </si>
   <si>
@@ -69,15 +51,6 @@
     <t xml:space="preserve">Some description </t>
   </si>
   <si>
-    <t>Wordpress Theme Design</t>
-  </si>
-  <si>
-    <t>Release 1.1</t>
-  </si>
-  <si>
-    <t>John Doe, Richard Gray, Sara Ann</t>
-  </si>
-  <si>
     <t>In progress</t>
   </si>
   <si>
@@ -93,43 +66,13 @@
     <t xml:space="preserve">Can't add new milestones </t>
   </si>
   <si>
-    <t>Logo Design</t>
-  </si>
-  <si>
-    <t>Sara Ann</t>
-  </si>
-  <si>
     <t>Check project quality</t>
   </si>
   <si>
-    <t>Website Development</t>
-  </si>
-  <si>
-    <t>Richard Gray</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
     <t>20/01/2022</t>
-  </si>
-  <si>
-    <t>Add bootstrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement bootstrap </t>
-  </si>
-  <si>
-    <t>Custom status</t>
-  </si>
-  <si>
-    <t>22/01/2022</t>
-  </si>
-  <si>
-    <t>21/01/2022</t>
-  </si>
-  <si>
-    <t>Important, Promised</t>
   </si>
 </sst>
 </file>
@@ -472,184 +415,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1</v>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>22</v>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>34</v>
-      </c>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/system/import-tasks-sample.xlsx
+++ b/files/system/import-tasks-sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>Title</t>
   </si>
@@ -36,65 +36,206 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Labels</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
     <t>Bug</t>
   </si>
   <si>
-    <t>Design a wordpress theme</t>
-  </si>
-  <si>
     <t xml:space="preserve">Some description </t>
   </si>
   <si>
     <t>In progress</t>
   </si>
   <si>
-    <t>New Idea</t>
-  </si>
-  <si>
     <t>26/01/2022</t>
   </si>
   <si>
     <t>31/01/2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Can't add new milestones </t>
-  </si>
-  <si>
-    <t>Check project quality</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
     <t>20/01/2022</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Dock list number</t>
+  </si>
+  <si>
+    <t>Reference drawing</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Specification</t>
+  </si>
+  <si>
+    <t>Requisition number</t>
+  </si>
+  <si>
+    <t>Collaborators</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Gas free certificate</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Ventilation</t>
+  </si>
+  <si>
+    <t>Crane assistance</t>
+  </si>
+  <si>
+    <t>Cleaning before</t>
+  </si>
+  <si>
+    <t>Cleaning after</t>
+  </si>
+  <si>
+    <t>Work permit</t>
+  </si>
+  <si>
+    <t>Painting after completion</t>
+  </si>
+  <si>
+    <t>Parts on board</t>
+  </si>
+  <si>
+    <t>Transport to yard workshop</t>
+  </si>
+  <si>
+    <t>Transport outside yard</t>
+  </si>
+  <si>
+    <t>Risk assessment</t>
+  </si>
+  <si>
+    <t>Maker</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Serial number</t>
+  </si>
+  <si>
+    <t>Fwd PS</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>Deck</t>
+  </si>
+  <si>
+    <t>Design a shopify theme</t>
+  </si>
+  <si>
+    <t>Shopify plugin</t>
+  </si>
+  <si>
+    <t>Code review</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>RD-1</t>
+  </si>
+  <si>
+    <t>RD-2</t>
+  </si>
+  <si>
+    <t>RD-3</t>
+  </si>
+  <si>
+    <t>specification-1</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>Andre Andrew</t>
+  </si>
+  <si>
+    <t>Ines Erna</t>
+  </si>
+  <si>
+    <t>David Smith</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>M-1</t>
+  </si>
+  <si>
+    <t>M-2</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>P123456</t>
+  </si>
+  <si>
+    <t>P123457</t>
+  </si>
+  <si>
+    <t>P098765</t>
+  </si>
+  <si>
+    <t>Material yards supply</t>
+  </si>
+  <si>
+    <t>Material owners supply</t>
+  </si>
+  <si>
+    <t>PMS SCS number</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -105,6 +246,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -128,13 +275,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,101 +568,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="2" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="11" width="25.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="11" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21" style="8" customWidth="1"/>
+    <col min="29" max="29" width="22.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:34" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="M1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="5">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>1</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
+      <c r="S2" s="7">
+        <v>1</v>
+      </c>
+      <c r="T2" s="7">
+        <v>1</v>
+      </c>
+      <c r="U2" s="7">
+        <v>1</v>
+      </c>
+      <c r="V2" s="7">
+        <v>1</v>
+      </c>
+      <c r="W2" s="7">
+        <v>0</v>
+      </c>
+      <c r="X2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2">
+        <v>123456</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="1:34">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="O3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="5">
+        <v>300</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>1</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0</v>
+      </c>
+      <c r="S3" s="7">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0</v>
+      </c>
+      <c r="U3" s="7">
+        <v>1</v>
+      </c>
+      <c r="V3" s="7">
+        <v>1</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0</v>
+      </c>
+      <c r="X3" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG3">
+        <v>234567</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
+      <c r="O4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="5">
+        <v>400</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>1</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>1</v>
+      </c>
+      <c r="T4" s="7">
+        <v>1</v>
+      </c>
+      <c r="U4" s="7">
+        <v>1</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>1</v>
+      </c>
+      <c r="X4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG4">
+        <v>345678</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+    <row r="5" spans="1:34">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
